--- a/TESTCASES/030/Data3.xlsx
+++ b/TESTCASES/030/Data3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uogcloud-my.sharepoint.com/personal/mj4126n_gre_ac_uk/Documents/PhD/Application/ObjectController/TESTCASES/3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uogcloud-my.sharepoint.com/personal/mj4126n_gre_ac_uk/Documents/PhD/Application/ObjectController/TESTCASES/030/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{648927C7-BA78-487D-943E-3059783E666D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{19C0D2B7-1F03-4E44-96D0-DC6348AC83F0}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{648927C7-BA78-487D-943E-3059783E666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AE5290F-B908-4A82-A712-2BFB4E4FC651}"/>
   <bookViews>
-    <workbookView xWindow="-10920" yWindow="4935" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rectangle_W3L40 (Linear)" sheetId="1" r:id="rId1"/>
@@ -8636,11 +8636,11 @@
         <v>6</v>
       </c>
       <c r="D147" s="2">
-        <f t="shared" ref="D147:D190" si="18">SQRT((B147-B146)^2+(C147-C146)^2)</f>
+        <f t="shared" ref="D147:D168" si="18">SQRT((B147-B146)^2+(C147-C146)^2)</f>
         <v>0</v>
       </c>
       <c r="E147" s="3">
-        <f t="shared" ref="E147:E190" si="19">E146+D147</f>
+        <f t="shared" ref="E147:E168" si="19">E146+D147</f>
         <v>16.75</v>
       </c>
       <c r="F147">
@@ -10107,11 +10107,11 @@
         <v>6</v>
       </c>
       <c r="N177" s="2">
-        <f t="shared" ref="N177:N218" si="20">SQRT((L177-L176)^2+(M177-M176)^2)</f>
+        <f t="shared" ref="N177:N202" si="20">SQRT((L177-L176)^2+(M177-M176)^2)</f>
         <v>0</v>
       </c>
       <c r="O177" s="3">
-        <f t="shared" ref="O177:O218" si="21">O176+N177</f>
+        <f t="shared" ref="O177:O202" si="21">O176+N177</f>
         <v>16.75</v>
       </c>
     </row>
@@ -25303,11 +25303,11 @@
         <v>90</v>
       </c>
       <c r="Q197" s="2">
-        <f t="shared" ref="Q197:Q244" si="20">SQRT((N197-N196)^2+(O197-O196)^2)</f>
+        <f t="shared" ref="Q197:Q220" si="20">SQRT((N197-N196)^2+(O197-O196)^2)</f>
         <v>0</v>
       </c>
       <c r="R197" s="3">
-        <f t="shared" ref="R197:R244" si="21">R196+Q197</f>
+        <f t="shared" ref="R197:R220" si="21">R196+Q197</f>
         <v>17.736067977499786</v>
       </c>
     </row>
@@ -26821,8 +26821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FE2C77-3992-471F-9452-1EC8240FBCDF}">
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35186,11 +35186,11 @@
         <v>13.25</v>
       </c>
       <c r="E133" s="2">
-        <f t="shared" ref="E133:E176" si="16">SQRT((C133-C132)^2+(D133-D132)^2)</f>
+        <f t="shared" ref="E133:E139" si="16">SQRT((C133-C132)^2+(D133-D132)^2)</f>
         <v>0.25</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" ref="F133:F176" si="17">F132+E133</f>
+        <f t="shared" ref="F133:F139" si="17">F132+E133</f>
         <v>12.25</v>
       </c>
       <c r="G133">
